--- a/java/demo/src/test/resources/excel/contacts.xlsx
+++ b/java/demo/src/test/resources/excel/contacts.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="13995" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="11790" windowHeight="4530"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -24,15 +25,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Joshua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>网易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +400,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -417,15 +418,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>13282172232</v>
